--- a/F1tenth BOM 2018.xlsx
+++ b/F1tenth BOM 2018.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PENN\Spring 2018\CIS599\f1tenthpublic- git upload\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\PENN\Spring 2018\CIS599\f1tenthpublic- git upload\Upload\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="180" uniqueCount="135">
   <si>
     <t>Component</t>
   </si>
@@ -424,9 +424,6 @@
     <t>UM7 IMU (optional)</t>
   </si>
   <si>
-    <t>https://www.pololu.com/product/2740</t>
-  </si>
-  <si>
     <t>or scan-sweep lidar</t>
   </si>
   <si>
@@ -434,6 +431,13 @@
   </si>
   <si>
     <t>or rgb option</t>
+  </si>
+  <si>
+    <t>https://www.amazon.com/Traxxas-2831X-5000mAh-3-Cell-Battery/dp/B01A6YDKS8/ref=sr_1_1?ie=UTF8&amp;qid=1519831925&amp;sr=8-1&amp;keywords=traxxas+2872x</t>
+  </si>
+  <si>
+    <t>https://www.pololu.com/product/2740
+http://www.chrobotics.com/shop/um7-orientation-sensor</t>
   </si>
 </sst>
 </file>
@@ -594,7 +598,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="6">
+  <borders count="8">
     <border>
       <left/>
       <right/>
@@ -669,12 +673,38 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="40">
+  <cellXfs count="45">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
@@ -790,8 +820,23 @@
     <xf numFmtId="0" fontId="17" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="14" fillId="7" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="6" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="12" fillId="0" borderId="7" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="2">
@@ -1108,11 +1153,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:K1009"/>
+  <dimension ref="A1:K1010"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="A14" sqref="A14"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="A43" sqref="A43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15.75" customHeight="1"/>
@@ -1158,7 +1203,7 @@
         <v>299.95</v>
       </c>
       <c r="D2" s="30">
-        <f t="shared" ref="D2:D9" si="0">B2*C2</f>
+        <f t="shared" ref="D2:D10" si="0">B2*C2</f>
         <v>299.95</v>
       </c>
       <c r="E2" s="31" t="s">
@@ -1194,16 +1239,16 @@
       </c>
     </row>
     <row r="4" spans="1:7" ht="25.5">
-      <c r="A4" s="29" t="s">
+      <c r="A4" s="43" t="s">
         <v>74</v>
       </c>
-      <c r="B4" s="29">
+      <c r="B4" s="43">
         <v>1</v>
       </c>
-      <c r="C4" s="30">
+      <c r="C4" s="41">
         <v>74.989999999999995</v>
       </c>
-      <c r="D4" s="30">
+      <c r="D4" s="41">
         <f t="shared" si="0"/>
         <v>74.989999999999995</v>
       </c>
@@ -1213,357 +1258,351 @@
       <c r="F4" s="29">
         <v>0</v>
       </c>
-      <c r="G4" s="32" t="s">
+      <c r="G4" s="39" t="s">
         <v>76</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="38.25">
-      <c r="A5" s="29" t="s">
+      <c r="A5" s="44"/>
+      <c r="B5" s="44"/>
+      <c r="C5" s="42"/>
+      <c r="D5" s="42"/>
+      <c r="E5" s="31" t="s">
+        <v>133</v>
+      </c>
+      <c r="F5" s="32"/>
+      <c r="G5" s="39"/>
+    </row>
+    <row r="6" spans="1:7" ht="38.25">
+      <c r="A6" s="29" t="s">
         <v>77</v>
       </c>
-      <c r="B5" s="29">
+      <c r="B6" s="29">
         <v>1</v>
       </c>
-      <c r="C5" s="30">
+      <c r="C6" s="30">
         <v>49.99</v>
       </c>
-      <c r="D5" s="30">
+      <c r="D6" s="30">
         <f t="shared" si="0"/>
         <v>49.99</v>
       </c>
-      <c r="E5" s="33" t="s">
+      <c r="E6" s="33" t="s">
         <v>78</v>
       </c>
-      <c r="F5" s="29">
+      <c r="F6" s="29">
         <v>0</v>
       </c>
-      <c r="G5" s="32"/>
-    </row>
-    <row r="6" spans="1:7" ht="51">
-      <c r="A6" s="29" t="s">
+      <c r="G6" s="39"/>
+    </row>
+    <row r="7" spans="1:7" ht="51">
+      <c r="A7" s="29" t="s">
         <v>79</v>
       </c>
-      <c r="B6" s="29">
+      <c r="B7" s="29">
         <v>1</v>
       </c>
-      <c r="C6" s="30">
+      <c r="C7" s="30">
         <v>299</v>
       </c>
-      <c r="D6" s="30">
+      <c r="D7" s="30">
         <f t="shared" si="0"/>
         <v>299</v>
       </c>
-      <c r="E6" s="37" t="s">
+      <c r="E7" s="37" t="s">
         <v>83</v>
       </c>
-      <c r="F6" s="29">
+      <c r="F7" s="29">
         <v>0</v>
       </c>
-      <c r="G6" s="29" t="s">
+      <c r="G7" s="29" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="12.75">
-      <c r="A7" s="29" t="s">
+    <row r="8" spans="1:7" ht="12.75">
+      <c r="A8" s="29" t="s">
         <v>80</v>
       </c>
-      <c r="B7" s="29">
+      <c r="B8" s="29">
         <v>1</v>
       </c>
-      <c r="C7" s="30">
+      <c r="C8" s="30">
         <v>173</v>
       </c>
-      <c r="D7" s="30">
+      <c r="D8" s="30">
         <f t="shared" si="0"/>
         <v>173</v>
       </c>
-      <c r="E7" s="31" t="s">
+      <c r="E8" s="31" t="s">
         <v>81</v>
       </c>
-      <c r="F7" s="29">
+      <c r="F8" s="29">
         <v>0</v>
       </c>
-      <c r="G7" s="29" t="s">
+      <c r="G8" s="29" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="57" customHeight="1">
-      <c r="A8" s="29" t="s">
+    <row r="9" spans="1:7" ht="57" customHeight="1">
+      <c r="A9" s="29" t="s">
         <v>17</v>
       </c>
-      <c r="B8" s="29">
+      <c r="B9" s="29">
         <v>1</v>
       </c>
-      <c r="C8" s="30">
+      <c r="C9" s="30">
         <v>29.95</v>
       </c>
-      <c r="D8" s="30">
+      <c r="D9" s="30">
         <f t="shared" si="0"/>
         <v>29.95</v>
       </c>
-      <c r="E8" s="31" t="s">
+      <c r="E9" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="F8" s="29">
+      <c r="F9" s="29">
         <v>0</v>
       </c>
-      <c r="G8" s="29"/>
-    </row>
-    <row r="9" spans="1:7" ht="12.75">
-      <c r="A9" s="29" t="s">
+      <c r="G9" s="29"/>
+    </row>
+    <row r="10" spans="1:7" ht="12.75">
+      <c r="A10" s="29" t="s">
         <v>19</v>
       </c>
-      <c r="B9" s="29">
+      <c r="B10" s="29">
         <v>1</v>
       </c>
-      <c r="C9" s="30">
+      <c r="C10" s="30">
         <v>15</v>
       </c>
-      <c r="D9" s="30">
+      <c r="D10" s="30">
         <f t="shared" si="0"/>
         <v>15</v>
       </c>
-      <c r="E9" s="31" t="str">
+      <c r="E10" s="31" t="str">
         <f>HYPERLINK("https://www.sparkfun.com/products/9873","https://www.sparkfun.com/products/9873 ")</f>
         <v xml:space="preserve">https://www.sparkfun.com/products/9873 </v>
       </c>
-      <c r="F9" s="29">
+      <c r="F10" s="29">
         <v>0</v>
       </c>
-      <c r="G9" s="29" t="s">
+      <c r="G10" s="29" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="10" spans="1:7" ht="12.75">
-      <c r="A10" s="34" t="s">
+    <row r="11" spans="1:7" ht="12.75">
+      <c r="A11" s="34" t="s">
         <v>20</v>
       </c>
-      <c r="B10" s="35"/>
-      <c r="C10" s="36"/>
-      <c r="D10" s="36"/>
-      <c r="E10" s="35"/>
-      <c r="F10" s="35"/>
-      <c r="G10" s="35"/>
-    </row>
-    <row r="11" spans="1:7" ht="12.75">
-      <c r="A11" s="29" t="s">
-        <v>21</v>
-      </c>
-      <c r="B11" s="32">
-        <v>1</v>
-      </c>
-      <c r="C11" s="30">
-        <v>49.95</v>
-      </c>
-      <c r="D11" s="30">
-        <f t="shared" ref="D11:D17" si="1">B11*C11</f>
-        <v>49.95</v>
-      </c>
-      <c r="E11" s="31" t="s">
-        <v>22</v>
-      </c>
-      <c r="F11" s="29">
-        <v>0</v>
-      </c>
-      <c r="G11" s="29"/>
+      <c r="B11" s="35"/>
+      <c r="C11" s="36"/>
+      <c r="D11" s="36"/>
+      <c r="E11" s="35"/>
+      <c r="F11" s="35"/>
+      <c r="G11" s="35"/>
     </row>
     <row r="12" spans="1:7" ht="12.75">
       <c r="A12" s="29" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="32"/>
-      <c r="C12" s="30"/>
-      <c r="D12" s="30"/>
+        <v>21</v>
+      </c>
+      <c r="B12" s="39">
+        <v>1</v>
+      </c>
+      <c r="C12" s="30">
+        <v>49.95</v>
+      </c>
+      <c r="D12" s="30">
+        <f t="shared" ref="D12:D18" si="1">B12*C12</f>
+        <v>49.95</v>
+      </c>
       <c r="E12" s="31" t="s">
-        <v>127</v>
-      </c>
-      <c r="F12" s="29"/>
-      <c r="G12" s="29" t="s">
-        <v>128</v>
-      </c>
+        <v>22</v>
+      </c>
+      <c r="F12" s="29">
+        <v>0</v>
+      </c>
+      <c r="G12" s="29"/>
     </row>
     <row r="13" spans="1:7" ht="12.75">
       <c r="A13" s="29" t="s">
-        <v>129</v>
-      </c>
-      <c r="B13" s="32"/>
+        <v>126</v>
+      </c>
+      <c r="B13" s="39"/>
       <c r="C13" s="30"/>
       <c r="D13" s="30"/>
       <c r="E13" s="31" t="s">
-        <v>130</v>
+        <v>127</v>
       </c>
       <c r="F13" s="29"/>
-      <c r="G13" s="29"/>
-    </row>
-    <row r="14" spans="1:7" ht="12.75">
+      <c r="G13" s="29" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" ht="25.5">
       <c r="A14" s="29" t="s">
+        <v>129</v>
+      </c>
+      <c r="B14" s="39"/>
+      <c r="C14" s="30"/>
+      <c r="D14" s="30"/>
+      <c r="E14" s="31" t="s">
+        <v>134</v>
+      </c>
+      <c r="F14" s="29"/>
+      <c r="G14" s="29"/>
+    </row>
+    <row r="15" spans="1:7" ht="12.75">
+      <c r="A15" s="29" t="s">
         <v>23</v>
       </c>
-      <c r="B14" s="29">
+      <c r="B15" s="29">
         <v>1</v>
       </c>
-      <c r="C14" s="30">
+      <c r="C15" s="30">
         <v>1775</v>
       </c>
-      <c r="D14" s="30">
+      <c r="D15" s="30">
         <f t="shared" si="1"/>
         <v>1775</v>
       </c>
-      <c r="E14" s="31" t="str">
+      <c r="E15" s="31" t="str">
         <f>HYPERLINK("https://acroname.com/products/HOKUYO-UST-10LX-LASER?sku=R359-UST-10LX","https://acroname.com/products/HOKUYO-UST-10LX-LASER?sku=R359-UST-10LX ")</f>
         <v xml:space="preserve">https://acroname.com/products/HOKUYO-UST-10LX-LASER?sku=R359-UST-10LX </v>
       </c>
-      <c r="F14" s="29">
+      <c r="F15" s="29">
         <v>0</v>
       </c>
-      <c r="G14" s="29" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="15" spans="1:7" ht="12.75">
-      <c r="A15" s="29" t="s">
+      <c r="G15" s="29" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" ht="12.75">
+      <c r="A16" s="29" t="s">
         <v>24</v>
       </c>
-      <c r="B15" s="32">
+      <c r="B16" s="39">
         <v>1</v>
       </c>
-      <c r="C15" s="30">
+      <c r="C16" s="30">
         <v>379</v>
       </c>
-      <c r="D15" s="30">
+      <c r="D16" s="30">
         <f t="shared" si="1"/>
         <v>379</v>
       </c>
-      <c r="E15" s="31" t="s">
+      <c r="E16" s="31" t="s">
         <v>25</v>
       </c>
-      <c r="F15" s="29">
+      <c r="F16" s="29">
         <v>0</v>
       </c>
-      <c r="G15" s="29" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="25.5">
-      <c r="A16" s="29" t="s">
+      <c r="G16" s="29" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="17" spans="1:11" ht="25.5">
+      <c r="A17" s="29" t="s">
         <v>124</v>
       </c>
-      <c r="B16" s="32"/>
-      <c r="C16" s="30" t="s">
+      <c r="B17" s="39"/>
+      <c r="C17" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="D16" s="30" t="s">
+      <c r="D17" s="30" t="s">
         <v>111</v>
       </c>
-      <c r="E16" s="31" t="s">
+      <c r="E17" s="31" t="s">
         <v>123</v>
       </c>
-      <c r="F16" s="29"/>
-      <c r="G16" s="29" t="s">
+      <c r="F17" s="29"/>
+      <c r="G17" s="29" t="s">
         <v>125</v>
       </c>
     </row>
-    <row r="17" spans="1:11" ht="12.75">
-      <c r="A17" s="29" t="s">
+    <row r="18" spans="1:11" ht="12.75">
+      <c r="A18" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="B17" s="32"/>
-      <c r="C17" s="30">
+      <c r="B18" s="39"/>
+      <c r="C18" s="30">
         <v>449</v>
       </c>
-      <c r="D17" s="30">
+      <c r="D18" s="30">
         <f t="shared" si="1"/>
         <v>0</v>
       </c>
-      <c r="E17" s="31" t="str">
+      <c r="E18" s="31" t="str">
         <f>HYPERLINK("https://www.stereolabs.com/","https://www.stereolabs.com/ ")</f>
         <v xml:space="preserve">https://www.stereolabs.com/ </v>
       </c>
-      <c r="F17" s="29">
+      <c r="F18" s="29">
         <v>0</v>
       </c>
-      <c r="G17" s="29" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="18" spans="1:11" ht="12.75">
-      <c r="A18" s="34" t="s">
+      <c r="G18" s="29" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="19" spans="1:11" ht="12.75">
+      <c r="A19" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="B18" s="35"/>
-      <c r="C18" s="35"/>
-      <c r="D18" s="35"/>
-      <c r="E18" s="35"/>
-      <c r="F18" s="35"/>
-      <c r="G18" s="35"/>
-    </row>
-    <row r="19" spans="1:11" ht="12.75">
-      <c r="A19" s="29" t="s">
-        <v>28</v>
-      </c>
-      <c r="B19" s="29">
-        <v>2</v>
-      </c>
-      <c r="C19" s="30">
-        <v>5.22</v>
-      </c>
-      <c r="D19" s="30">
-        <f t="shared" ref="D19:D29" si="2">B19*C19</f>
-        <v>10.44</v>
-      </c>
-      <c r="E19" s="31" t="s">
-        <v>29</v>
-      </c>
-      <c r="F19" s="29">
-        <v>0</v>
-      </c>
-      <c r="G19" s="29"/>
+      <c r="B19" s="35"/>
+      <c r="C19" s="35"/>
+      <c r="D19" s="35"/>
+      <c r="E19" s="35"/>
+      <c r="F19" s="35"/>
+      <c r="G19" s="35"/>
     </row>
     <row r="20" spans="1:11" ht="12.75">
       <c r="A20" s="29" t="s">
+        <v>28</v>
+      </c>
+      <c r="B20" s="29">
+        <v>2</v>
+      </c>
+      <c r="C20" s="30">
+        <v>5.22</v>
+      </c>
+      <c r="D20" s="30">
+        <f t="shared" ref="D20:D30" si="2">B20*C20</f>
+        <v>10.44</v>
+      </c>
+      <c r="E20" s="31" t="s">
+        <v>29</v>
+      </c>
+      <c r="F20" s="29">
+        <v>0</v>
+      </c>
+      <c r="G20" s="29"/>
+    </row>
+    <row r="21" spans="1:11" ht="12.75">
+      <c r="A21" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="B20" s="29">
+      <c r="B21" s="29">
         <v>1</v>
       </c>
-      <c r="C20" s="30">
+      <c r="C21" s="30">
         <v>8.99</v>
       </c>
-      <c r="D20" s="30">
+      <c r="D21" s="30">
         <f t="shared" si="2"/>
         <v>8.99</v>
       </c>
-      <c r="E20" s="31" t="s">
+      <c r="E21" s="31" t="s">
         <v>31</v>
       </c>
-      <c r="F20" s="29">
+      <c r="F21" s="29">
         <v>0</v>
       </c>
-      <c r="G20" s="29"/>
-    </row>
-    <row r="21" spans="1:11" ht="12.75">
-      <c r="A21" s="29" t="s">
-        <v>92</v>
-      </c>
-      <c r="B21" s="29">
-        <v>2</v>
-      </c>
-      <c r="C21" s="30"/>
-      <c r="D21" s="30"/>
-      <c r="E21" s="31" t="s">
-        <v>111</v>
-      </c>
-      <c r="F21" s="29"/>
-      <c r="G21" s="29" t="s">
-        <v>94</v>
-      </c>
+      <c r="G21" s="29"/>
     </row>
     <row r="22" spans="1:11" ht="12.75">
       <c r="A22" s="29" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B22" s="29">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="C22" s="30"/>
       <c r="D22" s="30"/>
@@ -1577,446 +1616,459 @@
     </row>
     <row r="23" spans="1:11" ht="12.75">
       <c r="A23" s="29" t="s">
-        <v>109</v>
+        <v>93</v>
       </c>
       <c r="B23" s="29">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="C23" s="30"/>
       <c r="D23" s="30"/>
-      <c r="E23" s="31"/>
+      <c r="E23" s="31" t="s">
+        <v>111</v>
+      </c>
       <c r="F23" s="29"/>
       <c r="G23" s="29" t="s">
+        <v>94</v>
+      </c>
+    </row>
+    <row r="24" spans="1:11" ht="12.75">
+      <c r="A24" s="29" t="s">
+        <v>109</v>
+      </c>
+      <c r="B24" s="29">
+        <v>4</v>
+      </c>
+      <c r="C24" s="30"/>
+      <c r="D24" s="30"/>
+      <c r="E24" s="31"/>
+      <c r="F24" s="29"/>
+      <c r="G24" s="29" t="s">
         <v>110</v>
       </c>
     </row>
-    <row r="24" spans="1:11" ht="25.5">
-      <c r="A24" s="29" t="s">
+    <row r="25" spans="1:11" ht="25.5">
+      <c r="A25" s="29" t="s">
         <v>32</v>
       </c>
-      <c r="B24" s="29">
+      <c r="B25" s="29">
         <v>1</v>
       </c>
-      <c r="C24" s="30">
+      <c r="C25" s="30">
         <v>6.38</v>
       </c>
-      <c r="D24" s="30">
+      <c r="D25" s="30">
         <f t="shared" si="2"/>
         <v>6.38</v>
       </c>
-      <c r="E24" s="37" t="s">
+      <c r="E25" s="37" t="s">
         <v>88</v>
       </c>
-      <c r="F24" s="29">
+      <c r="F25" s="29">
         <v>0</v>
       </c>
-      <c r="G24" s="29" t="s">
+      <c r="G25" s="29" t="s">
         <v>89</v>
       </c>
-      <c r="K24" s="26"/>
-    </row>
-    <row r="25" spans="1:11" ht="25.5">
-      <c r="A25" s="29" t="s">
+      <c r="K25" s="26"/>
+    </row>
+    <row r="26" spans="1:11" ht="25.5">
+      <c r="A26" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="B25" s="29">
+      <c r="B26" s="29">
         <v>1</v>
       </c>
-      <c r="C25" s="30">
+      <c r="C26" s="30">
         <v>9.74</v>
       </c>
-      <c r="D25" s="30">
+      <c r="D26" s="30">
         <f t="shared" si="2"/>
         <v>9.74</v>
       </c>
-      <c r="E25" s="37" t="s">
+      <c r="E26" s="37" t="s">
         <v>91</v>
       </c>
-      <c r="F25" s="29">
+      <c r="F26" s="29">
         <v>0</v>
       </c>
-      <c r="G25" s="29" t="s">
+      <c r="G26" s="29" t="s">
         <v>90</v>
       </c>
     </row>
-    <row r="26" spans="1:11" ht="12.75">
-      <c r="A26" s="38" t="s">
+    <row r="27" spans="1:11" ht="12.75">
+      <c r="A27" s="38" t="s">
         <v>95</v>
       </c>
-      <c r="B26" s="38">
+      <c r="B27" s="38">
         <v>8</v>
       </c>
-      <c r="C26" s="38">
+      <c r="C27" s="38">
         <v>4.2</v>
       </c>
-      <c r="D26" s="30">
+      <c r="D27" s="30">
         <f t="shared" si="2"/>
         <v>33.6</v>
       </c>
-      <c r="E26" s="38" t="s">
+      <c r="E27" s="38" t="s">
         <v>96</v>
       </c>
-      <c r="F26" s="29"/>
-      <c r="G26" s="29"/>
-      <c r="K26" s="26"/>
-    </row>
-    <row r="27" spans="1:11" ht="12.75">
-      <c r="A27" s="38" t="s">
+      <c r="F27" s="29"/>
+      <c r="G27" s="29"/>
+      <c r="K27" s="26"/>
+    </row>
+    <row r="28" spans="1:11" ht="12.75">
+      <c r="A28" s="38" t="s">
         <v>97</v>
       </c>
-      <c r="B27" s="38">
+      <c r="B28" s="38">
         <v>6</v>
       </c>
-      <c r="C27" s="38">
+      <c r="C28" s="38">
         <v>2.79</v>
       </c>
-      <c r="D27" s="30">
+      <c r="D28" s="30">
         <f t="shared" si="2"/>
         <v>16.740000000000002</v>
       </c>
-      <c r="E27" s="38" t="s">
+      <c r="E28" s="38" t="s">
         <v>98</v>
       </c>
-      <c r="F27" s="29"/>
-      <c r="G27" s="29"/>
-    </row>
-    <row r="28" spans="1:11" ht="12.75">
-      <c r="A28" s="38" t="s">
+      <c r="F28" s="29"/>
+      <c r="G28" s="29"/>
+    </row>
+    <row r="29" spans="1:11" ht="12.75">
+      <c r="A29" s="38" t="s">
         <v>99</v>
       </c>
-      <c r="B28" s="38">
+      <c r="B29" s="38">
         <v>4</v>
       </c>
-      <c r="C28" s="38">
+      <c r="C29" s="38">
         <v>2.8</v>
       </c>
-      <c r="D28" s="30">
+      <c r="D29" s="30">
         <f t="shared" si="2"/>
         <v>11.2</v>
       </c>
-      <c r="E28" s="38" t="s">
+      <c r="E29" s="38" t="s">
         <v>100</v>
       </c>
-      <c r="F28" s="29"/>
-      <c r="G28" s="29"/>
-    </row>
-    <row r="29" spans="1:11" ht="12.75">
-      <c r="A29" s="38" t="s">
+      <c r="F29" s="29"/>
+      <c r="G29" s="29"/>
+    </row>
+    <row r="30" spans="1:11" ht="12.75">
+      <c r="A30" s="38" t="s">
         <v>101</v>
       </c>
-      <c r="B29" s="38">
+      <c r="B30" s="38">
         <v>4</v>
       </c>
-      <c r="C29" s="38">
+      <c r="C30" s="38">
         <v>2.5299999999999998</v>
       </c>
-      <c r="D29" s="30">
+      <c r="D30" s="30">
         <f t="shared" si="2"/>
         <v>10.119999999999999</v>
       </c>
-      <c r="E29" s="38" t="s">
+      <c r="E30" s="38" t="s">
         <v>102</v>
       </c>
-      <c r="F29" s="29"/>
-      <c r="G29" s="29"/>
-    </row>
-    <row r="30" spans="1:11" ht="12.75">
-      <c r="A30" s="38" t="s">
-        <v>103</v>
-      </c>
-      <c r="B30" s="38">
-        <v>26</v>
-      </c>
-      <c r="C30" s="38">
-        <v>7.01</v>
-      </c>
-      <c r="D30" s="30">
-        <f>1*C30</f>
-        <v>7.01</v>
-      </c>
-      <c r="E30" s="38" t="s">
-        <v>104</v>
-      </c>
       <c r="F30" s="29"/>
-      <c r="G30" s="29" t="s">
-        <v>107</v>
-      </c>
+      <c r="G30" s="29"/>
     </row>
     <row r="31" spans="1:11" ht="12.75">
       <c r="A31" s="38" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B31" s="38">
-        <v>6</v>
+        <v>26</v>
       </c>
       <c r="C31" s="38">
-        <v>6.85</v>
+        <v>7.01</v>
       </c>
       <c r="D31" s="30">
         <f>1*C31</f>
-        <v>6.85</v>
+        <v>7.01</v>
       </c>
       <c r="E31" s="38" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="F31" s="29"/>
       <c r="G31" s="29" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="32" spans="1:11" ht="12.75">
+      <c r="A32" s="38" t="s">
+        <v>105</v>
+      </c>
+      <c r="B32" s="38">
+        <v>6</v>
+      </c>
+      <c r="C32" s="38">
+        <v>6.85</v>
+      </c>
+      <c r="D32" s="30">
+        <f>1*C32</f>
+        <v>6.85</v>
+      </c>
+      <c r="E32" s="38" t="s">
+        <v>106</v>
+      </c>
+      <c r="F32" s="29"/>
+      <c r="G32" s="29" t="s">
         <v>108</v>
       </c>
     </row>
-    <row r="32" spans="1:11" ht="12.75">
-      <c r="A32" s="34" t="s">
+    <row r="33" spans="1:7" ht="12.75">
+      <c r="A33" s="34" t="s">
         <v>47</v>
       </c>
-      <c r="B32" s="35"/>
-      <c r="C32" s="35"/>
-      <c r="D32" s="35"/>
-      <c r="E32" s="35"/>
-      <c r="F32" s="35"/>
-      <c r="G32" s="35"/>
-    </row>
-    <row r="33" spans="1:7" ht="12.75">
-      <c r="A33" s="39" t="s">
+      <c r="B33" s="35"/>
+      <c r="C33" s="35"/>
+      <c r="D33" s="35"/>
+      <c r="E33" s="35"/>
+      <c r="F33" s="35"/>
+      <c r="G33" s="35"/>
+    </row>
+    <row r="34" spans="1:7" ht="12.75">
+      <c r="A34" s="40" t="s">
         <v>112</v>
       </c>
-      <c r="B33" s="39"/>
-      <c r="C33" s="39"/>
-      <c r="D33" s="39"/>
-      <c r="E33" s="39"/>
-      <c r="F33" s="39"/>
-      <c r="G33" s="39"/>
-    </row>
-    <row r="34" spans="1:7" ht="12.75">
-      <c r="A34" s="34" t="s">
+      <c r="B34" s="40"/>
+      <c r="C34" s="40"/>
+      <c r="D34" s="40"/>
+      <c r="E34" s="40"/>
+      <c r="F34" s="40"/>
+      <c r="G34" s="40"/>
+    </row>
+    <row r="35" spans="1:7" ht="12.75">
+      <c r="A35" s="34" t="s">
         <v>49</v>
       </c>
-      <c r="B34" s="35"/>
-      <c r="C34" s="35"/>
-      <c r="D34" s="35"/>
-      <c r="E34" s="35"/>
-      <c r="F34" s="35"/>
-      <c r="G34" s="35"/>
-    </row>
-    <row r="35" spans="1:7" ht="12.75">
-      <c r="A35" s="29" t="s">
-        <v>50</v>
-      </c>
-      <c r="B35" s="29">
-        <v>1</v>
-      </c>
-      <c r="C35" s="30">
-        <v>25.79</v>
-      </c>
-      <c r="D35" s="30">
-        <f t="shared" ref="D35:D43" si="3">B35*C35</f>
-        <v>25.79</v>
-      </c>
-      <c r="E35" s="31" t="s">
-        <v>51</v>
-      </c>
-      <c r="F35" s="29">
-        <v>0</v>
-      </c>
-      <c r="G35" s="29"/>
+      <c r="B35" s="35"/>
+      <c r="C35" s="35"/>
+      <c r="D35" s="35"/>
+      <c r="E35" s="35"/>
+      <c r="F35" s="35"/>
+      <c r="G35" s="35"/>
     </row>
     <row r="36" spans="1:7" ht="12.75">
       <c r="A36" s="29" t="s">
-        <v>52</v>
+        <v>50</v>
       </c>
       <c r="B36" s="29">
         <v>1</v>
       </c>
       <c r="C36" s="30">
+        <v>25.79</v>
+      </c>
+      <c r="D36" s="30">
+        <f t="shared" ref="D36:D44" si="3">B36*C36</f>
+        <v>25.79</v>
+      </c>
+      <c r="E36" s="31" t="s">
+        <v>51</v>
+      </c>
+      <c r="F36" s="29">
+        <v>0</v>
+      </c>
+      <c r="G36" s="29"/>
+    </row>
+    <row r="37" spans="1:7" ht="12.75">
+      <c r="A37" s="29" t="s">
+        <v>52</v>
+      </c>
+      <c r="B37" s="29">
+        <v>1</v>
+      </c>
+      <c r="C37" s="30">
         <v>4.99</v>
       </c>
-      <c r="D36" s="30">
+      <c r="D37" s="30">
         <f t="shared" si="3"/>
         <v>4.99</v>
       </c>
-      <c r="E36" s="31" t="s">
+      <c r="E37" s="31" t="s">
         <v>53</v>
       </c>
-      <c r="F36" s="29">
+      <c r="F37" s="29">
         <v>0</v>
       </c>
-      <c r="G36" s="29" t="s">
+      <c r="G37" s="29" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="37" spans="1:7" ht="12.75">
-      <c r="A37" s="29" t="s">
+    <row r="38" spans="1:7" ht="12.75">
+      <c r="A38" s="29" t="s">
         <v>116</v>
       </c>
-      <c r="B37" s="29">
+      <c r="B38" s="29">
         <v>1</v>
       </c>
-      <c r="C37" s="30">
+      <c r="C38" s="30">
         <v>2.99</v>
       </c>
-      <c r="D37" s="30">
+      <c r="D38" s="30">
         <f t="shared" si="3"/>
         <v>2.99</v>
       </c>
-      <c r="E37" s="31" t="s">
+      <c r="E38" s="31" t="s">
         <v>57</v>
       </c>
-      <c r="F37" s="29">
+      <c r="F38" s="29">
         <v>0</v>
       </c>
-      <c r="G37" s="29" t="s">
+      <c r="G38" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="38" spans="1:7" ht="12.75">
-      <c r="A38" s="29" t="s">
+    <row r="39" spans="1:7" ht="12.75">
+      <c r="A39" s="29" t="s">
         <v>115</v>
       </c>
-      <c r="B38" s="29">
+      <c r="B39" s="29">
         <v>1</v>
       </c>
-      <c r="C38" s="30">
+      <c r="C39" s="30">
         <v>3.99</v>
       </c>
-      <c r="D38" s="30">
+      <c r="D39" s="30">
         <f t="shared" si="3"/>
         <v>3.99</v>
       </c>
-      <c r="E38" s="31" t="s">
+      <c r="E39" s="31" t="s">
         <v>59</v>
       </c>
-      <c r="F38" s="29">
+      <c r="F39" s="29">
         <v>0</v>
       </c>
-      <c r="G38" s="29" t="s">
+      <c r="G39" s="29" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="39" spans="1:7" ht="25.5">
-      <c r="A39" s="29" t="s">
+    <row r="40" spans="1:7" ht="25.5">
+      <c r="A40" s="29" t="s">
         <v>119</v>
       </c>
-      <c r="B39" s="29">
+      <c r="B40" s="29">
         <v>1</v>
       </c>
-      <c r="C39" s="30">
+      <c r="C40" s="30">
         <v>14.99</v>
       </c>
-      <c r="D39" s="30">
+      <c r="D40" s="30">
         <f t="shared" si="3"/>
         <v>14.99</v>
       </c>
-      <c r="E39" s="31" t="s">
+      <c r="E40" s="31" t="s">
         <v>120</v>
       </c>
-      <c r="F39" s="29"/>
-      <c r="G39" s="29"/>
-    </row>
-    <row r="40" spans="1:7" ht="12.75">
-      <c r="A40" s="29" t="s">
+      <c r="F40" s="29"/>
+      <c r="G40" s="29"/>
+    </row>
+    <row r="41" spans="1:7" ht="12.75">
+      <c r="A41" s="29" t="s">
         <v>121</v>
       </c>
-      <c r="B40" s="29">
+      <c r="B41" s="29">
         <v>1</v>
       </c>
-      <c r="C40" s="30">
+      <c r="C41" s="30">
         <v>9.49</v>
       </c>
-      <c r="D40" s="30">
+      <c r="D41" s="30">
         <f t="shared" si="3"/>
         <v>9.49</v>
       </c>
-      <c r="E40" s="31" t="s">
+      <c r="E41" s="31" t="s">
         <v>122</v>
       </c>
-      <c r="F40" s="29"/>
-      <c r="G40" s="29"/>
-    </row>
-    <row r="41" spans="1:7" ht="12.75">
-      <c r="A41" s="29" t="s">
+      <c r="F41" s="29"/>
+      <c r="G41" s="29"/>
+    </row>
+    <row r="42" spans="1:7" ht="12.75">
+      <c r="A42" s="29" t="s">
         <v>60</v>
       </c>
-      <c r="B41" s="29">
+      <c r="B42" s="29">
         <v>1</v>
       </c>
-      <c r="C41" s="30">
+      <c r="C42" s="30">
         <v>3</v>
       </c>
-      <c r="D41" s="30">
+      <c r="D42" s="30">
         <f t="shared" si="3"/>
         <v>3</v>
       </c>
-      <c r="E41" s="31" t="s">
+      <c r="E42" s="31" t="s">
         <v>61</v>
       </c>
-      <c r="F41" s="29">
+      <c r="F42" s="29">
         <v>0</v>
       </c>
-      <c r="G41" s="29" t="s">
+      <c r="G42" s="29" t="s">
         <v>62</v>
       </c>
     </row>
-    <row r="42" spans="1:7" ht="12.75">
-      <c r="A42" s="29" t="s">
+    <row r="43" spans="1:7" ht="12.75">
+      <c r="A43" s="29" t="s">
         <v>63</v>
       </c>
-      <c r="B42" s="29">
+      <c r="B43" s="29">
         <v>1</v>
       </c>
-      <c r="C42" s="30">
+      <c r="C43" s="30">
         <v>7.18</v>
       </c>
-      <c r="D42" s="30">
+      <c r="D43" s="30">
         <f t="shared" si="3"/>
         <v>7.18</v>
       </c>
-      <c r="E42" s="31" t="s">
+      <c r="E43" s="31" t="s">
         <v>64</v>
       </c>
-      <c r="F42" s="29">
+      <c r="F43" s="29">
         <v>0</v>
       </c>
-      <c r="G42" s="29" t="s">
+      <c r="G43" s="29" t="s">
         <v>118</v>
       </c>
     </row>
-    <row r="43" spans="1:7" ht="12.75">
-      <c r="A43" s="29" t="s">
+    <row r="44" spans="1:7" ht="12.75">
+      <c r="A44" s="29" t="s">
         <v>117</v>
       </c>
-      <c r="B43" s="29">
+      <c r="B44" s="29">
         <v>2</v>
       </c>
-      <c r="C43" s="30">
+      <c r="C44" s="30">
         <v>24.95</v>
       </c>
-      <c r="D43" s="30">
+      <c r="D44" s="30">
         <f t="shared" si="3"/>
         <v>49.9</v>
       </c>
-      <c r="E43" s="31" t="s">
+      <c r="E44" s="31" t="s">
         <v>70</v>
       </c>
-      <c r="F43" s="29">
+      <c r="F44" s="29">
         <v>0</v>
       </c>
-      <c r="G43" s="29"/>
-    </row>
-    <row r="44" spans="1:7" ht="12.75">
-      <c r="C44" s="23"/>
-      <c r="D44" s="23"/>
+      <c r="G44" s="29"/>
     </row>
     <row r="45" spans="1:7" ht="12.75">
-      <c r="C45" s="23" t="s">
+      <c r="C45" s="23"/>
+      <c r="D45" s="23"/>
+    </row>
+    <row r="46" spans="1:7" ht="12.75">
+      <c r="C46" s="23" t="s">
         <v>71</v>
       </c>
-      <c r="D45" s="24">
-        <f>SUM(D2:D43)</f>
+      <c r="D46" s="24">
+        <f>SUM(D2:D44)</f>
         <v>3389.219999999998</v>
       </c>
-    </row>
-    <row r="46" spans="1:7" ht="12.75">
-      <c r="C46" s="23"/>
-      <c r="D46" s="23"/>
     </row>
     <row r="47" spans="1:7" ht="12.75">
       <c r="C47" s="23"/>
@@ -5870,29 +5922,37 @@
       <c r="C1009" s="23"/>
       <c r="D1009" s="23"/>
     </row>
+    <row r="1010" spans="3:4" ht="12.75">
+      <c r="C1010" s="23"/>
+      <c r="D1010" s="23"/>
+    </row>
   </sheetData>
-  <mergeCells count="4">
-    <mergeCell ref="G4:G5"/>
-    <mergeCell ref="A33:G33"/>
-    <mergeCell ref="B11:B13"/>
-    <mergeCell ref="B15:B17"/>
+  <mergeCells count="8">
+    <mergeCell ref="G4:G6"/>
+    <mergeCell ref="A34:G34"/>
+    <mergeCell ref="B12:B14"/>
+    <mergeCell ref="B16:B18"/>
+    <mergeCell ref="C4:C5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="A4:A5"/>
   </mergeCells>
   <hyperlinks>
     <hyperlink ref="E2" r:id="rId1" xr:uid="{00000000-0004-0000-0000-000000000000}"/>
     <hyperlink ref="E3" r:id="rId2" xr:uid="{00000000-0004-0000-0000-000002000000}"/>
     <hyperlink ref="E4" r:id="rId3" xr:uid="{00000000-0004-0000-0000-000004000000}"/>
-    <hyperlink ref="E7" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
-    <hyperlink ref="E11" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
-    <hyperlink ref="E15" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
-    <hyperlink ref="E19" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
-    <hyperlink ref="E20" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
-    <hyperlink ref="E35" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
-    <hyperlink ref="E36" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
-    <hyperlink ref="E37" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
-    <hyperlink ref="E38" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
-    <hyperlink ref="E41" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
-    <hyperlink ref="E42" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
-    <hyperlink ref="E43" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
+    <hyperlink ref="E8" r:id="rId4" xr:uid="{00000000-0004-0000-0000-000008000000}"/>
+    <hyperlink ref="E12" r:id="rId5" xr:uid="{00000000-0004-0000-0000-00000A000000}"/>
+    <hyperlink ref="E16" r:id="rId6" xr:uid="{00000000-0004-0000-0000-00000B000000}"/>
+    <hyperlink ref="E20" r:id="rId7" xr:uid="{00000000-0004-0000-0000-00000C000000}"/>
+    <hyperlink ref="E21" r:id="rId8" xr:uid="{00000000-0004-0000-0000-00000D000000}"/>
+    <hyperlink ref="E36" r:id="rId9" xr:uid="{00000000-0004-0000-0000-000014000000}"/>
+    <hyperlink ref="E37" r:id="rId10" xr:uid="{00000000-0004-0000-0000-000015000000}"/>
+    <hyperlink ref="E38" r:id="rId11" xr:uid="{00000000-0004-0000-0000-000017000000}"/>
+    <hyperlink ref="E39" r:id="rId12" xr:uid="{00000000-0004-0000-0000-000018000000}"/>
+    <hyperlink ref="E42" r:id="rId13" xr:uid="{00000000-0004-0000-0000-000019000000}"/>
+    <hyperlink ref="E43" r:id="rId14" xr:uid="{00000000-0004-0000-0000-00001A000000}"/>
+    <hyperlink ref="E44" r:id="rId15" xr:uid="{00000000-0004-0000-0000-00001D000000}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId16"/>
